--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C594454-EF1E-4316-8077-5B8BB3A93241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,86 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Current Weather</t>
+  </si>
+  <si>
+    <t>/data/3.0/onecall</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Pobranie aktualnej pogody dla poprawnych współrzędnych</t>
+  </si>
+  <si>
+    <t>lat=52.2297, lon=21.0122, appid=VALID_API_KEY, units=metric</t>
+  </si>
+  <si>
+    <t>Status 200, poprawna struktura JSON (`weather`, `main`, `wind`, `dt`)</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +411,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="60" customWidth="1"/>
+    <col min="8" max="8" width="56.88671875" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C594454-EF1E-4316-8077-5B8BB3A93241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375CB9AD-E7CB-460B-AC07-344929B9B032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Test ID</t>
   </si>
@@ -87,13 +87,39 @@
     <t>Pobranie aktualnej pogody dla poprawnych współrzędnych</t>
   </si>
   <si>
-    <t>lat=52.2297, lon=21.0122, appid=VALID_API_KEY, units=metric</t>
-  </si>
-  <si>
     <t>Status 200, poprawna struktura JSON (`weather`, `main`, `wind`, `dt`)</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy API poprawnie reaguje na nieprawidłowy klucz API. Celem jest weryfikacja mechanizmu autoryzacji i obsługi błędów w API 3.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat = 52.2297  
+lon = 21.0122  
+appid = INVALID_API_KEY  
+units = metric  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat = 52.2297  
+lon = 21.0122  
+appid = VALID_API_KEY  
+units = metric  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Status:  401 Unauthorized 
+W treści odpowiedzi komunikat błędu: `"Invalid API key"`  
+Brak danych pogodowych w polach `current`, `hourly` i `daily`.  </t>
+  </si>
+  <si>
+    <t>Tożsamy z wynikiem oczekiwanym.</t>
   </si>
 </sst>
 </file>
@@ -129,9 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -412,100 +443,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="60" customWidth="1"/>
-    <col min="8" max="8" width="56.88671875" customWidth="1"/>
-    <col min="9" max="9" width="56.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.21875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="58.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375CB9AD-E7CB-460B-AC07-344929B9B032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58408D52-35BA-4B59-BCAA-3141BA1A38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Test ID</t>
   </si>
@@ -120,6 +120,41 @@
   </si>
   <si>
     <t>Tożsamy z wynikiem oczekiwanym.</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Brak parametru lat(szerokość geograficzna)</t>
+  </si>
+  <si>
+    <t>Status 400,Informacja o braku wymaganych parametrów</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Niepoprawny format współrzędnych geograficznych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lon = 21.0122  
+appid = VALID_API_KEY  
+units = metric  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat = abc  
+lon = xyz  
+appid = VALID_API_KEY  
+units = metric  </t>
+  </si>
+  <si>
+    <t>Status 400,Informacja o nieprawidłowo wprowadzonych danych</t>
+  </si>
+  <si>
+    <t>Tożsamy z wynikiem oczekiwanym, nawet sprecyzowane jakie dane zostały wprowadzone niepoprawnie.</t>
   </si>
 </sst>
 </file>
@@ -445,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,60 +502,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -529,33 +564,34 @@
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -567,18 +603,85 @@
       <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G5" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G6" s="2"/>
@@ -786,5 +889,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58408D52-35BA-4B59-BCAA-3141BA1A38D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15229D61-E5E1-440F-919E-57A57C31A666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Current Weather" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Test ID</t>
   </si>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>Tożsamy z wynikiem oczekiwanym, nawet sprecyzowane jakie dane zostały wprowadzone niepoprawnie.</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Sprawdzanie jednostek metrical i imperial</t>
+  </si>
+  <si>
+    <t>lat = 52.2297 
+lon = 21.0122  
+appid = VALID_API_KEY  
+units = imperial</t>
+  </si>
+  <si>
+    <t>Status 200, inne dane, w miarę dokładnie odwzorowane jednostki(np.. C na F)</t>
+  </si>
+  <si>
+    <t>status 200, jednostki odpowiednio zmienione</t>
+  </si>
+  <si>
+    <t>Sprawdzono jednostki temperatur, dla uproszczenia, na potrzeby projektu pozostałe jednostki np. prędkość wiatru zostały z góry określone jako poprawne</t>
   </si>
 </sst>
 </file>
@@ -481,7 +505,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,8 +707,43 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="2"/>
+    <row r="6" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G7" s="2"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15229D61-E5E1-440F-919E-57A57C31A666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42EBA71-E3CD-44AD-BB4C-8840737D9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Weather" sheetId="1" r:id="rId1"/>
+    <sheet name="Forecast" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Test ID</t>
   </si>
@@ -179,6 +180,33 @@
   </si>
   <si>
     <t>Sprawdzono jednostki temperatur, dla uproszczenia, na potrzeby projektu pozostałe jednostki np. prędkość wiatru zostały z góry określone jako poprawne</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>https://api.openweathermap.org/data/3.0/onecall</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat = 52.2297  
+lon = 21.0122  
+appid = VALID_API_KEY  
+units = metric exclude=current,minutely,daily,alerts  </t>
+  </si>
+  <si>
+    <t>Status 200, Tablica z informacjami na temat prognoz pogody w ciągu godzin</t>
+  </si>
+  <si>
+    <t>Pobranie prognozy dziennej</t>
+  </si>
+  <si>
+    <t>Status 200, prognozy na najbliższe dni</t>
   </si>
 </sst>
 </file>
@@ -504,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,4 +978,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C0EF6-C0A4-41AA-AAA8-F3209CFBB647}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42EBA71-E3CD-44AD-BB4C-8840737D9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF1115-8F35-4CD8-BA5D-E34C2F123472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>Test ID</t>
   </si>
@@ -200,23 +200,74 @@
 units = metric exclude=current,minutely,daily,alerts  </t>
   </si>
   <si>
-    <t>Status 200, Tablica z informacjami na temat prognoz pogody w ciągu godzin</t>
-  </si>
-  <si>
     <t>Pobranie prognozy dziennej</t>
   </si>
   <si>
     <t>Status 200, prognozy na najbliższe dni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat = 52.2297  
+lon = 21.0122  
+appid = VALID_API_KEY  
+units = metric exclude=current,minutely,hourly,alerts  </t>
+  </si>
+  <si>
+    <t>Status 200, Tablica z informacjami na temat prognoz pogody w ciągu najbliższych dni</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Pobranie prognozy godzinowej</t>
+  </si>
+  <si>
+    <t>Status 200, Tablica z informacjami na temat prognoz pogody w ciągu najbliższych godzin</t>
+  </si>
+  <si>
+    <t>Status 200, prognozy na najbliższe godziny, zgodność logiczna danych występuje</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Edge Case</t>
+  </si>
+  <si>
+    <t>Wybranie wartości spoza zakresu</t>
+  </si>
+  <si>
+    <t>lat=270
+lon=270
+exclude=current,minutely,hourly
+units=metric
+appid=VALID_API_KEY</t>
+  </si>
+  <si>
+    <t>Status 400, Informacja o niepoprawnych danych na wejściu(wyspecyfikowanie których)</t>
+  </si>
+  <si>
+    <t>Status 200, nie ma określonych wszytskich danych, które są niepoprawne</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,10 +290,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,8 +302,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -982,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C0EF6-C0A4-41AA-AAA8-F3209CFBB647}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1060,7 @@
     <col min="12" max="12" width="15.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,22 +1118,99 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{090BFB28-2C47-4AB4-954F-0DC4B919908E}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{65CD7130-0960-4375-A3D9-2755A0674943}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\portfolio\Tester manualny - junior\OpenWeatherMapAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF1115-8F35-4CD8-BA5D-E34C2F123472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5AFA0-8172-4DF0-8417-A9EDE0882BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,10 +246,10 @@
     <t>Status 400, Informacja o niepoprawnych danych na wejściu(wyspecyfikowanie których)</t>
   </si>
   <si>
-    <t>Status 200, nie ma określonych wszytskich danych, które są niepoprawne</t>
-  </si>
-  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Status 400, nie ma określonych wszytskich danych, które są niepoprawne</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C0EF6-C0A4-41AA-AAA8-F3209CFBB647}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,10 +1197,10 @@
         <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
